--- a/secure/26P-Luna.xlsx
+++ b/secure/26P-Luna.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Luna-900898</t>
+    <t>26P-Luna-477976</t>
   </si>
   <si>
-    <t>26P-Luna-510606</t>
+    <t>26P-Luna-153933</t>
   </si>
   <si>
-    <t>26P-Luna-758983</t>
+    <t>26P-Luna-155184</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F2ab4382"/>
+        <fgColor rgb="F107398d"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NI503"/>
+  <dimension ref="A1:PU503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -979,14 +979,11 @@
       </c>
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:170" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>-0.652</v>
       </c>
       <c r="M89" s="4"/>
-      <c r="FN89" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
@@ -1408,14 +1405,11 @@
       </c>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>-0.368</v>
       </c>
       <c r="M160" s="4"/>
-      <c r="IK160" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
@@ -1657,14 +1651,11 @@
       </c>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="1:373" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>-0.204</v>
       </c>
       <c r="M201" s="4"/>
-      <c r="NI201" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
@@ -2578,11 +2569,14 @@
       </c>
       <c r="M353" s="4"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>0.408</v>
       </c>
       <c r="M354" s="4"/>
+      <c r="EA354" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
@@ -3010,11 +3004,14 @@
       </c>
       <c r="M425" s="4"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:437" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>0.696</v>
       </c>
       <c r="M426" s="4"/>
+      <c r="PU426" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
@@ -3262,11 +3259,14 @@
       </c>
       <c r="M467" s="4"/>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:197" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>0.864</v>
       </c>
       <c r="M468" s="4"/>
+      <c r="GO468" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
